--- a/market_observed_treasuries.xlsx
+++ b/market_observed_treasuries.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="244">
   <si>
     <t>Action</t>
   </si>
@@ -103,10 +103,10 @@
     <t>US Treasury 2.25% 11/15/2025  912828M56</t>
   </si>
   <si>
-    <t>US Treasury 2% 11/15/2026  912828U24</t>
-  </si>
-  <si>
-    <t>US Treasury 2.25% 11/15/2027  9128283F5</t>
+    <t>US Treasury 6.5% 11/15/2026  912810EY0</t>
+  </si>
+  <si>
+    <t>US Treasury 6.125% 11/15/2027  912810FB9</t>
   </si>
   <si>
     <t>US Treasury 2.875% 05/15/2028  9128284N7</t>
@@ -169,9 +169,6 @@
     <t>US Treasury 4.75% 02/15/2041  912810QN1</t>
   </si>
   <si>
-    <t>US Treasury 3.75% 08/15/2041  912810QS0</t>
-  </si>
-  <si>
     <t>US Treasury 3.125% 02/15/2042  912810QU5</t>
   </si>
   <si>
@@ -340,9 +337,6 @@
     <t>02/15/2041</t>
   </si>
   <si>
-    <t>08/15/2041</t>
-  </si>
-  <si>
     <t>02/15/2042</t>
   </si>
   <si>
@@ -451,10 +445,10 @@
     <t>View  for 912828M56 CUSIP</t>
   </si>
   <si>
-    <t>View  for 912828U24 CUSIP</t>
-  </si>
-  <si>
-    <t>View  for 9128283F5 CUSIP</t>
+    <t>View  for 912810EY0 CUSIP</t>
+  </si>
+  <si>
+    <t>View  for 912810FB9 CUSIP</t>
   </si>
   <si>
     <t>View  for 9128284N7 CUSIP</t>
@@ -517,9 +511,6 @@
     <t>View  for 912810QN1 CUSIP</t>
   </si>
   <si>
-    <t>View  for 912810QS0 CUSIP</t>
-  </si>
-  <si>
     <t>View  for 912810QU5 CUSIP</t>
   </si>
   <si>
@@ -622,10 +613,10 @@
     <t>CUSIP 912828M56</t>
   </si>
   <si>
-    <t>CUSIP 912828U24</t>
-  </si>
-  <si>
-    <t>CUSIP 9128283F5</t>
+    <t>CUSIP 912810EY0</t>
+  </si>
+  <si>
+    <t>CUSIP 912810FB9</t>
   </si>
   <si>
     <t>CUSIP 9128284N7</t>
@@ -686,9 +677,6 @@
   </si>
   <si>
     <t>CUSIP 912810QN1</t>
-  </si>
-  <si>
-    <t>CUSIP 912810QS0</t>
   </si>
   <si>
     <t>CUSIP 912810QU5</t>
@@ -1185,46 +1173,46 @@
         <v>4.375</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2">
+        <v>275</v>
+      </c>
+      <c r="G2">
+        <v>99.03</v>
+      </c>
+      <c r="H2">
+        <v>275</v>
+      </c>
+      <c r="I2">
+        <v>13000</v>
+      </c>
+      <c r="J2">
+        <v>4.497</v>
+      </c>
+      <c r="K2" t="s">
+        <v>131</v>
+      </c>
+      <c r="L2">
+        <v>621.1799999999999</v>
+      </c>
+      <c r="M2">
+        <v>272953.68</v>
+      </c>
+      <c r="N2" t="s">
         <v>132</v>
       </c>
-      <c r="F2">
-        <v>250</v>
-      </c>
-      <c r="G2">
-        <v>98.65234</v>
-      </c>
-      <c r="H2">
-        <v>250</v>
-      </c>
-      <c r="I2">
-        <v>30000</v>
-      </c>
-      <c r="J2">
-        <v>4.545</v>
-      </c>
-      <c r="K2" t="s">
-        <v>133</v>
-      </c>
-      <c r="L2">
-        <v>475.54</v>
-      </c>
-      <c r="M2">
-        <v>247106.4</v>
-      </c>
-      <c r="N2" t="s">
-        <v>134</v>
-      </c>
       <c r="O2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="P2">
         <v>10</v>
       </c>
       <c r="Q2">
-        <v>9.961643835616439</v>
+        <v>9.95890410958904</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1238,10 +1226,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F3">
         <v>1000</v>
@@ -1259,25 +1247,25 @@
         <v>5.387</v>
       </c>
       <c r="K3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M3">
         <v>982740</v>
       </c>
       <c r="N3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="P3">
         <v>0.25</v>
       </c>
       <c r="Q3">
-        <v>0.336986301369863</v>
+        <v>0.3342465753424658</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1291,46 +1279,46 @@
         <v>4.875</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F4">
-        <v>500</v>
+        <v>525</v>
       </c>
       <c r="G4">
-        <v>99.90900000000001</v>
+        <v>99.974</v>
       </c>
       <c r="H4">
-        <v>500</v>
+        <v>525</v>
       </c>
       <c r="I4">
-        <v>81000</v>
+        <v>87000</v>
       </c>
       <c r="J4">
-        <v>4.923</v>
+        <v>4.889</v>
       </c>
       <c r="K4" t="s">
-        <v>133</v>
-      </c>
-      <c r="L4" t="s">
-        <v>133</v>
+        <v>131</v>
+      </c>
+      <c r="L4">
+        <v>209.78</v>
       </c>
       <c r="M4">
-        <v>499545</v>
+        <v>525073.28</v>
       </c>
       <c r="N4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="P4">
         <v>2</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1.997260273972603</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1344,46 +1332,46 @@
         <v>4.625</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F5">
         <v>275</v>
       </c>
       <c r="G5">
-        <v>98.27206</v>
+        <v>98.86169</v>
       </c>
       <c r="H5">
         <v>275</v>
       </c>
       <c r="I5">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="J5">
-        <v>4.76</v>
+        <v>4.713</v>
       </c>
       <c r="K5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L5">
-        <v>552.99</v>
+        <v>656.67</v>
       </c>
       <c r="M5">
-        <v>270801.16</v>
+        <v>272526.31</v>
       </c>
       <c r="N5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P5">
         <v>20</v>
       </c>
       <c r="Q5">
-        <v>19.96986301369863</v>
+        <v>19.96712328767123</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1397,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F6">
         <v>1000</v>
       </c>
       <c r="G6">
-        <v>97.51033</v>
+        <v>97.55775</v>
       </c>
       <c r="H6">
         <v>1000</v>
@@ -1415,28 +1403,28 @@
         <v>15000</v>
       </c>
       <c r="J6">
-        <v>5.356</v>
+        <v>5.343</v>
       </c>
       <c r="K6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M6">
-        <v>975103.33</v>
+        <v>975577.5</v>
       </c>
       <c r="N6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="P6">
         <v>0.5</v>
       </c>
       <c r="Q6">
-        <v>0.4767123287671233</v>
+        <v>0.473972602739726</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1450,46 +1438,46 @@
         <v>4.5</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F7">
-        <v>525</v>
+        <v>550</v>
       </c>
       <c r="G7">
-        <v>99.354</v>
+        <v>99.47150000000001</v>
       </c>
       <c r="H7">
-        <v>525</v>
+        <v>550</v>
       </c>
       <c r="I7">
-        <v>46000</v>
+        <v>45000</v>
       </c>
       <c r="J7">
-        <v>4.736</v>
+        <v>4.693</v>
       </c>
       <c r="K7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L7">
-        <v>1027.17</v>
+        <v>1277.85</v>
       </c>
       <c r="M7">
-        <v>522635.67</v>
+        <v>548371.1</v>
       </c>
       <c r="N7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P7">
         <v>3</v>
       </c>
       <c r="Q7">
-        <v>2.956164383561644</v>
+        <v>2.953424657534247</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1503,16 +1491,16 @@
         <v>4.625</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F8">
         <v>275</v>
       </c>
       <c r="G8">
-        <v>99.13472</v>
+        <v>99.81138</v>
       </c>
       <c r="H8">
         <v>275</v>
@@ -1521,28 +1509,28 @@
         <v>12000</v>
       </c>
       <c r="J8">
-        <v>4.679</v>
+        <v>4.637</v>
       </c>
       <c r="K8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L8">
-        <v>552.99</v>
+        <v>656.67</v>
       </c>
       <c r="M8">
-        <v>273173.47</v>
+        <v>275137.95</v>
       </c>
       <c r="N8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P8">
         <v>30</v>
       </c>
       <c r="Q8">
-        <v>29.97534246575342</v>
+        <v>29.97260273972603</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1556,46 +1544,46 @@
         <v>4.5</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F9">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="G9">
-        <v>99.72266</v>
+        <v>99.9375</v>
       </c>
       <c r="H9">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="I9">
-        <v>30000</v>
+        <v>41000</v>
       </c>
       <c r="J9">
-        <v>4.563</v>
+        <v>4.514</v>
       </c>
       <c r="K9" t="s">
-        <v>133</v>
-      </c>
-      <c r="L9" t="s">
-        <v>133</v>
+        <v>131</v>
+      </c>
+      <c r="L9">
+        <v>101.43</v>
       </c>
       <c r="M9">
-        <v>249306.64</v>
+        <v>274929.56</v>
       </c>
       <c r="N9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="P9">
         <v>5</v>
       </c>
       <c r="Q9">
-        <v>5.002739726027397</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1609,16 +1597,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F10">
         <v>1000</v>
       </c>
       <c r="G10">
-        <v>95.22478</v>
+        <v>95.27797</v>
       </c>
       <c r="H10">
         <v>1000</v>
@@ -1627,28 +1615,28 @@
         <v>15000</v>
       </c>
       <c r="J10">
-        <v>5.181</v>
+        <v>5.165</v>
       </c>
       <c r="K10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M10">
-        <v>952247.78</v>
+        <v>952779.72</v>
       </c>
       <c r="N10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O10" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="P10">
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>0.9561643835616438</v>
+        <v>0.9534246575342465</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1662,46 +1650,46 @@
         <v>4.625</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F11">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="G11">
-        <v>100.404</v>
+        <v>100.6875</v>
       </c>
       <c r="H11">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="I11">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="J11">
-        <v>4.557</v>
+        <v>4.509</v>
       </c>
       <c r="K11" t="s">
-        <v>133</v>
-      </c>
-      <c r="L11" t="s">
-        <v>133</v>
+        <v>131</v>
+      </c>
+      <c r="L11">
+        <v>94.77</v>
       </c>
       <c r="M11">
-        <v>276111</v>
+        <v>251813.52</v>
       </c>
       <c r="N11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O11" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P11">
         <v>7</v>
       </c>
       <c r="Q11">
-        <v>7.002739726027397</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1715,16 +1703,16 @@
         <v>2.25</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F12">
         <v>300</v>
       </c>
       <c r="G12">
-        <v>96.08203</v>
+        <v>96.14843999999999</v>
       </c>
       <c r="H12">
         <v>300</v>
@@ -1733,28 +1721,28 @@
         <v>10000</v>
       </c>
       <c r="J12">
-        <v>5.074</v>
+        <v>5.04</v>
       </c>
       <c r="K12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L12">
-        <v>293.48</v>
+        <v>348.51</v>
       </c>
       <c r="M12">
-        <v>288539.57</v>
+        <v>288793.82</v>
       </c>
       <c r="N12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O12" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P12">
         <v>1.5</v>
       </c>
       <c r="Q12">
-        <v>1.46027397260274</v>
+        <v>1.457534246575342</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1765,19 +1753,19 @@
         <v>29</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="D13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F13">
         <v>300</v>
       </c>
       <c r="G13">
-        <v>93.55859</v>
+        <v>105.06641</v>
       </c>
       <c r="H13">
         <v>300</v>
@@ -1786,28 +1774,28 @@
         <v>10000</v>
       </c>
       <c r="J13">
-        <v>4.811</v>
+        <v>4.296</v>
       </c>
       <c r="K13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L13">
-        <v>260.87</v>
+        <v>1006.79</v>
       </c>
       <c r="M13">
-        <v>280936.65</v>
+        <v>316206.01</v>
       </c>
       <c r="N13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O13" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="P13">
         <v>2.5</v>
       </c>
       <c r="Q13">
-        <v>2.46027397260274</v>
+        <v>2.457534246575342</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1818,49 +1806,49 @@
         <v>30</v>
       </c>
       <c r="C14">
-        <v>2.25</v>
+        <v>6.125</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F14">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="G14">
-        <v>92.31075</v>
+        <v>105.03125</v>
       </c>
       <c r="H14">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="I14">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="J14">
-        <v>4.685</v>
+        <v>4.532</v>
       </c>
       <c r="K14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L14">
-        <v>269.02</v>
+        <v>790.59</v>
       </c>
       <c r="M14">
-        <v>254123.58</v>
+        <v>263368.72</v>
       </c>
       <c r="N14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O14" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P14">
         <v>3.5</v>
       </c>
       <c r="Q14">
-        <v>3.46027397260274</v>
+        <v>3.457534246575342</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1874,46 +1862,46 @@
         <v>2.875</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F15">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="G15">
-        <v>93.73</v>
+        <v>93.85364</v>
       </c>
       <c r="H15">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="I15">
-        <v>19000</v>
+        <v>5000</v>
       </c>
       <c r="J15">
-        <v>4.627</v>
+        <v>4.594</v>
       </c>
       <c r="K15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L15">
-        <v>312.5</v>
+        <v>408.2</v>
       </c>
       <c r="M15">
-        <v>234637.5</v>
+        <v>258505.71</v>
       </c>
       <c r="N15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O15" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="P15">
         <v>4</v>
       </c>
       <c r="Q15">
-        <v>3.958904109589041</v>
+        <v>3.956164383561644</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1927,46 +1915,46 @@
         <v>1.375</v>
       </c>
       <c r="D16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F16">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="G16">
-        <v>87.19922</v>
+        <v>87.398</v>
       </c>
       <c r="H16">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="I16">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="J16">
-        <v>4.612</v>
+        <v>4.563</v>
       </c>
       <c r="K16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L16">
-        <v>318.53</v>
+        <v>317.6</v>
       </c>
       <c r="M16">
-        <v>240116.38</v>
+        <v>218812.6</v>
       </c>
       <c r="N16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O16" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="P16">
         <v>4.5</v>
       </c>
       <c r="Q16">
-        <v>4.421917808219178</v>
+        <v>4.419178082191781</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1980,46 +1968,46 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F17">
         <v>275</v>
       </c>
       <c r="G17">
-        <v>97.21575</v>
+        <v>97.44522000000001</v>
       </c>
       <c r="H17">
         <v>275</v>
       </c>
       <c r="I17">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="J17">
-        <v>4.586</v>
+        <v>4.537</v>
       </c>
       <c r="K17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L17">
-        <v>926.63</v>
+        <v>1016.3</v>
       </c>
       <c r="M17">
-        <v>268269.94</v>
+        <v>268990.65</v>
       </c>
       <c r="N17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O17" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="P17">
         <v>5.5</v>
       </c>
       <c r="Q17">
-        <v>5.421917808219178</v>
+        <v>5.419178082191781</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -2033,46 +2021,46 @@
         <v>3.5</v>
       </c>
       <c r="D18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F18">
         <v>275</v>
       </c>
       <c r="G18">
-        <v>94.48047</v>
+        <v>94.71093999999999</v>
       </c>
       <c r="H18">
         <v>275</v>
       </c>
       <c r="I18">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="J18">
-        <v>4.575</v>
+        <v>4.53</v>
       </c>
       <c r="K18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L18">
-        <v>810.8</v>
+        <v>889.27</v>
       </c>
       <c r="M18">
-        <v>260632.09</v>
+        <v>261344.35</v>
       </c>
       <c r="N18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O18" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="P18">
         <v>6</v>
       </c>
       <c r="Q18">
-        <v>5.917808219178082</v>
+        <v>5.915068493150685</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -2086,46 +2074,46 @@
         <v>4.875</v>
       </c>
       <c r="D19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F19">
         <v>275</v>
       </c>
       <c r="G19">
-        <v>101.65938</v>
+        <v>101.925</v>
       </c>
       <c r="H19">
         <v>275</v>
       </c>
       <c r="I19">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="J19">
-        <v>4.573</v>
+        <v>4.525</v>
       </c>
       <c r="K19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L19">
-        <v>1129.33</v>
+        <v>1238.62</v>
       </c>
       <c r="M19">
-        <v>280692.62</v>
+        <v>281532.37</v>
       </c>
       <c r="N19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O19" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="P19">
         <v>6.5</v>
       </c>
       <c r="Q19">
-        <v>6.421917808219178</v>
+        <v>6.419178082191781</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -2139,46 +2127,46 @@
         <v>1.375</v>
       </c>
       <c r="D20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F20">
         <v>275</v>
       </c>
       <c r="G20">
-        <v>80.10337</v>
+        <v>80.366</v>
       </c>
       <c r="H20">
         <v>275</v>
       </c>
       <c r="I20">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="J20">
-        <v>4.552</v>
+        <v>4.507</v>
       </c>
       <c r="K20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L20">
-        <v>164.4</v>
+        <v>195.23</v>
       </c>
       <c r="M20">
-        <v>220448.68</v>
+        <v>221201.73</v>
       </c>
       <c r="N20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O20" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="P20">
         <v>7.5</v>
       </c>
       <c r="Q20">
-        <v>7.463013698630137</v>
+        <v>7.46027397260274</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -2192,46 +2180,46 @@
         <v>2.875</v>
       </c>
       <c r="D21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E21" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F21">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="G21">
-        <v>88.86573</v>
+        <v>89.16797</v>
       </c>
       <c r="H21">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="I21">
         <v>8000</v>
       </c>
       <c r="J21">
-        <v>4.559</v>
+        <v>4.512</v>
       </c>
       <c r="K21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L21">
-        <v>343.75</v>
+        <v>371.09</v>
       </c>
       <c r="M21">
-        <v>244724.49</v>
+        <v>223291.01</v>
       </c>
       <c r="N21" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O21" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="P21">
         <v>8</v>
       </c>
       <c r="Q21">
-        <v>7.961643835616439</v>
+        <v>7.958904109589041</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -2245,46 +2233,46 @@
         <v>4.125</v>
       </c>
       <c r="D22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F22">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="G22">
-        <v>96.99099</v>
+        <v>97.33593999999999</v>
       </c>
       <c r="H22">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="I22">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="J22">
-        <v>4.558</v>
+        <v>4.507</v>
       </c>
       <c r="K22" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L22">
-        <v>493.21</v>
+        <v>532.4400000000001</v>
       </c>
       <c r="M22">
-        <v>267218.42</v>
+        <v>243872.28</v>
       </c>
       <c r="N22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O22" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="P22">
         <v>8.5</v>
       </c>
       <c r="Q22">
-        <v>8.465753424657533</v>
+        <v>8.463013698630137</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2298,46 +2286,46 @@
         <v>3.375</v>
       </c>
       <c r="D23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F23">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="G23">
-        <v>91.40625</v>
+        <v>91.72499999999999</v>
       </c>
       <c r="H23">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="I23">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="J23">
-        <v>4.554</v>
+        <v>4.509</v>
       </c>
       <c r="K23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L23">
-        <v>366.85</v>
+        <v>479.19</v>
       </c>
       <c r="M23">
-        <v>228882.48</v>
+        <v>252722.94</v>
       </c>
       <c r="N23" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O23" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P23">
         <v>9</v>
       </c>
       <c r="Q23">
-        <v>8.961643835616439</v>
+        <v>8.95890410958904</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2351,46 +2339,46 @@
         <v>4.5</v>
       </c>
       <c r="D24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F24">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="G24">
-        <v>99.60061</v>
+        <v>99.96599999999999</v>
       </c>
       <c r="H24">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="I24">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="J24">
-        <v>4.552</v>
+        <v>4.504</v>
       </c>
       <c r="K24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L24">
-        <v>586.96</v>
+        <v>638.9299999999999</v>
       </c>
       <c r="M24">
-        <v>299388.8</v>
+        <v>275545.43</v>
       </c>
       <c r="N24" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O24" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="P24">
         <v>9.5</v>
       </c>
       <c r="Q24">
-        <v>9.465753424657533</v>
+        <v>9.463013698630137</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2404,46 +2392,46 @@
         <v>4.375</v>
       </c>
       <c r="D25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25">
+        <v>275</v>
+      </c>
+      <c r="G25">
+        <v>99.03069000000001</v>
+      </c>
+      <c r="H25">
+        <v>275</v>
+      </c>
+      <c r="I25">
+        <v>12000</v>
+      </c>
+      <c r="J25">
+        <v>4.497</v>
+      </c>
+      <c r="K25" t="s">
+        <v>131</v>
+      </c>
+      <c r="L25">
+        <v>621.1799999999999</v>
+      </c>
+      <c r="M25">
+        <v>272955.57</v>
+      </c>
+      <c r="N25" t="s">
         <v>132</v>
       </c>
-      <c r="F25">
-        <v>250</v>
-      </c>
-      <c r="G25">
-        <v>98.65234</v>
-      </c>
-      <c r="H25">
-        <v>250</v>
-      </c>
-      <c r="I25">
-        <v>30000</v>
-      </c>
-      <c r="J25">
-        <v>4.545</v>
-      </c>
-      <c r="K25" t="s">
-        <v>133</v>
-      </c>
-      <c r="L25">
-        <v>475.54</v>
-      </c>
-      <c r="M25">
-        <v>247106.4</v>
-      </c>
-      <c r="N25" t="s">
-        <v>134</v>
-      </c>
       <c r="O25" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="P25">
         <v>10.5</v>
       </c>
       <c r="Q25">
-        <v>9.961643835616439</v>
+        <v>9.95890410958904</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2457,16 +2445,16 @@
         <v>4.5</v>
       </c>
       <c r="D26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F26">
         <v>250</v>
       </c>
       <c r="G26">
-        <v>100.6875</v>
+        <v>101.125</v>
       </c>
       <c r="H26">
         <v>250</v>
@@ -2475,28 +2463,28 @@
         <v>10000</v>
       </c>
       <c r="J26">
-        <v>4.423</v>
+        <v>4.375</v>
       </c>
       <c r="K26" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L26">
-        <v>3276.1</v>
+        <v>3368.82</v>
       </c>
       <c r="M26">
-        <v>254994.85</v>
+        <v>256181.32</v>
       </c>
       <c r="N26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="P26">
         <v>11</v>
       </c>
       <c r="Q26">
-        <v>11.71780821917808</v>
+        <v>11.71506849315069</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2510,16 +2498,16 @@
         <v>4.5</v>
       </c>
       <c r="D27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F27">
         <v>250</v>
       </c>
       <c r="G27">
-        <v>100.6875</v>
+        <v>101.125</v>
       </c>
       <c r="H27">
         <v>250</v>
@@ -2528,28 +2516,28 @@
         <v>10000</v>
       </c>
       <c r="J27">
-        <v>4.423</v>
+        <v>4.375</v>
       </c>
       <c r="K27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L27">
-        <v>3276.1</v>
+        <v>3368.82</v>
       </c>
       <c r="M27">
-        <v>254994.85</v>
+        <v>256181.32</v>
       </c>
       <c r="N27" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O27" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="P27">
         <v>11.5</v>
       </c>
       <c r="Q27">
-        <v>11.71780821917808</v>
+        <v>11.71506849315069</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2563,16 +2551,16 @@
         <v>4.5</v>
       </c>
       <c r="D28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F28">
         <v>250</v>
       </c>
       <c r="G28">
-        <v>100.6875</v>
+        <v>101.125</v>
       </c>
       <c r="H28">
         <v>250</v>
@@ -2581,28 +2569,28 @@
         <v>10000</v>
       </c>
       <c r="J28">
-        <v>4.423</v>
+        <v>4.375</v>
       </c>
       <c r="K28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L28">
-        <v>3276.1</v>
+        <v>3368.82</v>
       </c>
       <c r="M28">
-        <v>254994.85</v>
+        <v>256181.32</v>
       </c>
       <c r="N28" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O28" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="P28">
         <v>12</v>
       </c>
       <c r="Q28">
-        <v>11.71780821917808</v>
+        <v>11.71506849315069</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2616,16 +2604,16 @@
         <v>4.75</v>
       </c>
       <c r="D29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F29">
         <v>250</v>
       </c>
       <c r="G29">
-        <v>102.6875</v>
+        <v>103.17188</v>
       </c>
       <c r="H29">
         <v>250</v>
@@ -2634,28 +2622,28 @@
         <v>10000</v>
       </c>
       <c r="J29">
-        <v>4.47</v>
+        <v>4.42</v>
       </c>
       <c r="K29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L29">
-        <v>3458.1</v>
+        <v>3555.98</v>
       </c>
       <c r="M29">
-        <v>260176.85</v>
+        <v>261485.67</v>
       </c>
       <c r="N29" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O29" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P29">
         <v>12.5</v>
       </c>
       <c r="Q29">
-        <v>12.72054794520548</v>
+        <v>12.71780821917808</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2669,16 +2657,16 @@
         <v>4.75</v>
       </c>
       <c r="D30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E30" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F30">
         <v>250</v>
       </c>
       <c r="G30">
-        <v>102.6875</v>
+        <v>103.17188</v>
       </c>
       <c r="H30">
         <v>250</v>
@@ -2687,28 +2675,28 @@
         <v>10000</v>
       </c>
       <c r="J30">
-        <v>4.47</v>
+        <v>4.42</v>
       </c>
       <c r="K30" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L30">
-        <v>3458.1</v>
+        <v>3555.98</v>
       </c>
       <c r="M30">
-        <v>260176.85</v>
+        <v>261485.67</v>
       </c>
       <c r="N30" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O30" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P30">
         <v>13</v>
       </c>
       <c r="Q30">
-        <v>12.72054794520548</v>
+        <v>12.71780821917808</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2722,46 +2710,46 @@
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E31" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F31">
         <v>250</v>
       </c>
       <c r="G31">
-        <v>105.035</v>
+        <v>105.5</v>
       </c>
       <c r="H31">
         <v>250</v>
       </c>
       <c r="I31">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="J31">
-        <v>4.483</v>
+        <v>4.437</v>
       </c>
       <c r="K31" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L31">
-        <v>543.48</v>
+        <v>645.38</v>
       </c>
       <c r="M31">
-        <v>263130.98</v>
+        <v>264395.38</v>
       </c>
       <c r="N31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O31" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P31">
         <v>13.5</v>
       </c>
       <c r="Q31">
-        <v>12.96438356164384</v>
+        <v>12.96164383561644</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2775,46 +2763,46 @@
         <v>4.375</v>
       </c>
       <c r="D32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E32" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F32">
         <v>250</v>
       </c>
       <c r="G32">
-        <v>98.40625</v>
+        <v>98.91</v>
       </c>
       <c r="H32">
         <v>250</v>
       </c>
       <c r="I32">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="J32">
-        <v>4.532</v>
+        <v>4.482</v>
       </c>
       <c r="K32" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L32">
-        <v>3185.1</v>
+        <v>3275.24</v>
       </c>
       <c r="M32">
-        <v>249200.73</v>
+        <v>250550.24</v>
       </c>
       <c r="N32" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O32" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="P32">
         <v>14</v>
       </c>
       <c r="Q32">
-        <v>13.72054794520548</v>
+        <v>13.71780821917808</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2828,16 +2816,16 @@
         <v>4.5</v>
       </c>
       <c r="D33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E33" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F33">
         <v>250</v>
       </c>
       <c r="G33">
-        <v>99.53125</v>
+        <v>100.01563</v>
       </c>
       <c r="H33">
         <v>250</v>
@@ -2846,28 +2834,28 @@
         <v>10000</v>
       </c>
       <c r="J33">
-        <v>4.546</v>
+        <v>4.498</v>
       </c>
       <c r="K33" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L33">
-        <v>489.13</v>
+        <v>580.84</v>
       </c>
       <c r="M33">
-        <v>249317.26</v>
+        <v>250619.9</v>
       </c>
       <c r="N33" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O33" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="P33">
         <v>14.5</v>
       </c>
       <c r="Q33">
-        <v>13.96438356164384</v>
+        <v>13.96164383561644</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2881,16 +2869,16 @@
         <v>3.5</v>
       </c>
       <c r="D34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E34" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F34">
         <v>250</v>
       </c>
       <c r="G34">
-        <v>88.5625</v>
+        <v>89.09375</v>
       </c>
       <c r="H34">
         <v>250</v>
@@ -2899,28 +2887,28 @@
         <v>10000</v>
       </c>
       <c r="J34">
-        <v>4.577</v>
+        <v>4.523</v>
       </c>
       <c r="K34" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L34">
-        <v>2548.08</v>
+        <v>2620.19</v>
       </c>
       <c r="M34">
-        <v>223954.33</v>
+        <v>225354.57</v>
       </c>
       <c r="N34" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O34" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P34">
         <v>15</v>
       </c>
       <c r="Q34">
-        <v>14.72054794520548</v>
+        <v>14.71780821917808</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2934,16 +2922,16 @@
         <v>4.5</v>
       </c>
       <c r="D35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E35" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F35">
         <v>250</v>
       </c>
       <c r="G35">
-        <v>98.64453</v>
+        <v>99.23047</v>
       </c>
       <c r="H35">
         <v>250</v>
@@ -2952,28 +2940,28 @@
         <v>10000</v>
       </c>
       <c r="J35">
-        <v>4.625</v>
+        <v>4.57</v>
       </c>
       <c r="K35" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L35">
-        <v>3276.1</v>
+        <v>3368.82</v>
       </c>
       <c r="M35">
-        <v>249887.43</v>
+        <v>251444.99</v>
       </c>
       <c r="N35" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O35" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="P35">
         <v>15.5</v>
       </c>
       <c r="Q35">
-        <v>15.21643835616438</v>
+        <v>15.21369863013699</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2987,46 +2975,46 @@
         <v>4.625</v>
       </c>
       <c r="D36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E36" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F36">
         <v>250</v>
       </c>
       <c r="G36">
-        <v>99.78516</v>
+        <v>100.39063</v>
       </c>
       <c r="H36">
         <v>250</v>
       </c>
       <c r="I36">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="J36">
-        <v>4.644</v>
+        <v>4.589</v>
       </c>
       <c r="K36" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L36">
-        <v>3367.1</v>
+        <v>3462.4</v>
       </c>
       <c r="M36">
-        <v>252829.99</v>
+        <v>254438.96</v>
       </c>
       <c r="N36" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O36" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P36">
         <v>16</v>
       </c>
       <c r="Q36">
-        <v>15.72054794520548</v>
+        <v>15.71780821917808</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -3040,16 +3028,16 @@
         <v>3.875</v>
       </c>
       <c r="D37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E37" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F37">
         <v>250</v>
       </c>
       <c r="G37">
-        <v>90.96875</v>
+        <v>91.53125</v>
       </c>
       <c r="H37">
         <v>250</v>
@@ -3058,28 +3046,28 @@
         <v>10000</v>
       </c>
       <c r="J37">
-        <v>4.675</v>
+        <v>4.623</v>
       </c>
       <c r="K37" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L37">
-        <v>2821.09</v>
+        <v>2900.93</v>
       </c>
       <c r="M37">
-        <v>230242.97</v>
+        <v>231729.06</v>
       </c>
       <c r="N37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O37" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="P37">
         <v>16.5</v>
       </c>
       <c r="Q37">
-        <v>16.21917808219178</v>
+        <v>16.21643835616439</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -3093,16 +3081,16 @@
         <v>4.75</v>
       </c>
       <c r="D38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E38" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F38">
         <v>250</v>
       </c>
       <c r="G38">
-        <v>100.78125</v>
+        <v>101.40625</v>
       </c>
       <c r="H38">
         <v>250</v>
@@ -3111,81 +3099,28 @@
         <v>10000</v>
       </c>
       <c r="J38">
-        <v>4.681</v>
+        <v>4.628</v>
       </c>
       <c r="K38" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L38">
-        <v>3458.1</v>
+        <v>3555.98</v>
       </c>
       <c r="M38">
-        <v>255411.23</v>
+        <v>257071.61</v>
       </c>
       <c r="N38" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O38" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P38">
         <v>17</v>
       </c>
       <c r="Q38">
-        <v>16.72328767123288</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="A39" t="s">
-        <v>17</v>
-      </c>
-      <c r="B39" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39">
-        <v>3.75</v>
-      </c>
-      <c r="D39" t="s">
-        <v>108</v>
-      </c>
-      <c r="E39" t="s">
-        <v>132</v>
-      </c>
-      <c r="F39">
-        <v>250</v>
-      </c>
-      <c r="G39">
-        <v>88.6875</v>
-      </c>
-      <c r="H39">
-        <v>250</v>
-      </c>
-      <c r="I39">
-        <v>10000</v>
-      </c>
-      <c r="J39">
-        <v>4.717</v>
-      </c>
-      <c r="K39" t="s">
-        <v>133</v>
-      </c>
-      <c r="L39">
-        <v>2730.08</v>
-      </c>
-      <c r="M39">
-        <v>224448.83</v>
-      </c>
-      <c r="N39" t="s">
-        <v>167</v>
-      </c>
-      <c r="O39" t="s">
-        <v>224</v>
-      </c>
-      <c r="P39">
-        <v>17.5</v>
-      </c>
-      <c r="Q39">
-        <v>17.21917808219178</v>
+        <v>16.72054794520548</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -3193,22 +3128,22 @@
         <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C40">
         <v>3.125</v>
       </c>
       <c r="D40" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E40" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F40">
         <v>250</v>
       </c>
       <c r="G40">
-        <v>80.5625</v>
+        <v>81.125</v>
       </c>
       <c r="H40">
         <v>250</v>
@@ -3217,28 +3152,28 @@
         <v>10000</v>
       </c>
       <c r="J40">
-        <v>4.762</v>
+        <v>4.708</v>
       </c>
       <c r="K40" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L40">
-        <v>2275.07</v>
+        <v>2339.46</v>
       </c>
       <c r="M40">
-        <v>203681.32</v>
+        <v>205151.96</v>
       </c>
       <c r="N40" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="O40" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="P40">
         <v>18</v>
       </c>
       <c r="Q40">
-        <v>17.72328767123288</v>
+        <v>17.72054794520548</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -3246,22 +3181,22 @@
         <v>17</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C41">
         <v>2.75</v>
       </c>
       <c r="D41" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E41" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F41">
         <v>250</v>
       </c>
       <c r="G41">
-        <v>75.4375</v>
+        <v>76</v>
       </c>
       <c r="H41">
         <v>250</v>
@@ -3270,28 +3205,28 @@
         <v>10000</v>
       </c>
       <c r="J41">
-        <v>4.786</v>
+        <v>4.731</v>
       </c>
       <c r="K41" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L41">
-        <v>2002.06</v>
+        <v>2058.72</v>
       </c>
       <c r="M41">
-        <v>190595.81</v>
+        <v>192058.72</v>
       </c>
       <c r="N41" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O41" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="P41">
         <v>18.5</v>
       </c>
       <c r="Q41">
-        <v>18.21917808219178</v>
+        <v>18.21643835616439</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -3299,22 +3234,22 @@
         <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C42">
         <v>3.125</v>
       </c>
       <c r="D42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E42" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F42">
         <v>250</v>
       </c>
       <c r="G42">
-        <v>79.64063</v>
+        <v>80.15625</v>
       </c>
       <c r="H42">
         <v>250</v>
@@ -3323,28 +3258,28 @@
         <v>10000</v>
       </c>
       <c r="J42">
-        <v>4.784</v>
+        <v>4.736</v>
       </c>
       <c r="K42" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L42">
-        <v>2275.07</v>
+        <v>2339.46</v>
       </c>
       <c r="M42">
-        <v>201376.63</v>
+        <v>202730.09</v>
       </c>
       <c r="N42" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="O42" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="P42">
         <v>19</v>
       </c>
       <c r="Q42">
-        <v>18.72328767123288</v>
+        <v>18.72054794520548</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -3352,22 +3287,22 @@
         <v>17</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C43">
         <v>3.625</v>
       </c>
       <c r="D43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E43" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F43">
         <v>250</v>
       </c>
       <c r="G43">
-        <v>85.441</v>
+        <v>85.988</v>
       </c>
       <c r="H43">
         <v>250</v>
@@ -3376,28 +3311,28 @@
         <v>4000</v>
       </c>
       <c r="J43">
-        <v>4.793</v>
+        <v>4.745</v>
       </c>
       <c r="K43" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L43">
-        <v>2639.08</v>
+        <v>2713.77</v>
       </c>
       <c r="M43">
-        <v>216241.58</v>
+        <v>217683.77</v>
       </c>
       <c r="N43" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="O43" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="P43">
         <v>19.5</v>
       </c>
       <c r="Q43">
-        <v>19.21917808219178</v>
+        <v>19.21643835616439</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -3405,22 +3340,22 @@
         <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C44">
         <v>3.125</v>
       </c>
       <c r="D44" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E44" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F44">
         <v>250</v>
       </c>
       <c r="G44">
-        <v>78.59375</v>
+        <v>79.10938</v>
       </c>
       <c r="H44">
         <v>250</v>
@@ -3429,28 +3364,28 @@
         <v>10000</v>
       </c>
       <c r="J44">
-        <v>4.79</v>
+        <v>4.744</v>
       </c>
       <c r="K44" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L44">
-        <v>2275.07</v>
+        <v>2339.46</v>
       </c>
       <c r="M44">
-        <v>198759.45</v>
+        <v>200112.9</v>
       </c>
       <c r="N44" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="O44" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="P44">
         <v>20.5</v>
       </c>
       <c r="Q44">
-        <v>20.22191780821918</v>
+        <v>20.21917808219178</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3458,22 +3393,22 @@
         <v>17</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C45">
         <v>2.5</v>
       </c>
       <c r="D45" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E45" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F45">
         <v>250</v>
       </c>
       <c r="G45">
-        <v>70.0625</v>
+        <v>70.53125</v>
       </c>
       <c r="H45">
         <v>250</v>
@@ -3482,28 +3417,28 @@
         <v>10000</v>
       </c>
       <c r="J45">
-        <v>4.796</v>
+        <v>4.752</v>
       </c>
       <c r="K45" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L45">
-        <v>1820.05</v>
+        <v>1871.57</v>
       </c>
       <c r="M45">
-        <v>176976.3</v>
+        <v>178199.7</v>
       </c>
       <c r="N45" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="O45" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="P45">
         <v>21</v>
       </c>
       <c r="Q45">
-        <v>20.72602739726027</v>
+        <v>20.72328767123288</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3511,22 +3446,22 @@
         <v>17</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C46">
         <v>2.875</v>
       </c>
       <c r="D46" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E46" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F46">
         <v>250</v>
       </c>
       <c r="G46">
-        <v>74.625</v>
+        <v>75.125</v>
       </c>
       <c r="H46">
         <v>250</v>
@@ -3535,28 +3470,28 @@
         <v>10000</v>
       </c>
       <c r="J46">
-        <v>4.794</v>
+        <v>4.749</v>
       </c>
       <c r="K46" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L46">
-        <v>2093.06</v>
+        <v>2152.3</v>
       </c>
       <c r="M46">
-        <v>188655.56</v>
+        <v>189964.8</v>
       </c>
       <c r="N46" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="O46" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="P46">
         <v>21.5</v>
       </c>
       <c r="Q46">
-        <v>21.22191780821918</v>
+        <v>21.21917808219178</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3564,22 +3499,22 @@
         <v>17</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C47">
         <v>2.5</v>
       </c>
       <c r="D47" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E47" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F47">
         <v>250</v>
       </c>
       <c r="G47">
-        <v>69.25</v>
+        <v>69.73438</v>
       </c>
       <c r="H47">
         <v>250</v>
@@ -3588,28 +3523,28 @@
         <v>10000</v>
       </c>
       <c r="J47">
-        <v>4.794</v>
+        <v>4.75</v>
       </c>
       <c r="K47" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L47">
-        <v>1820.05</v>
+        <v>1871.57</v>
       </c>
       <c r="M47">
-        <v>174945.05</v>
+        <v>176207.51</v>
       </c>
       <c r="N47" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="O47" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="P47">
         <v>22</v>
       </c>
       <c r="Q47">
-        <v>21.72602739726027</v>
+        <v>21.72328767123288</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3617,22 +3552,22 @@
         <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C48">
         <v>2.25</v>
       </c>
       <c r="D48" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E48" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F48">
         <v>250</v>
       </c>
       <c r="G48">
-        <v>65.48438</v>
+        <v>65.95313</v>
       </c>
       <c r="H48">
         <v>250</v>
@@ -3641,28 +3576,28 @@
         <v>10000</v>
       </c>
       <c r="J48">
-        <v>4.792</v>
+        <v>4.748</v>
       </c>
       <c r="K48" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L48">
-        <v>1638.05</v>
+        <v>1684.41</v>
       </c>
       <c r="M48">
-        <v>165348.99</v>
+        <v>166567.22</v>
       </c>
       <c r="N48" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O48" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="P48">
         <v>22.5</v>
       </c>
       <c r="Q48">
-        <v>22.22191780821918</v>
+        <v>22.21917808219178</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3670,22 +3605,22 @@
         <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C49">
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E49" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F49">
         <v>250</v>
       </c>
       <c r="G49">
-        <v>75.273</v>
+        <v>75.812</v>
       </c>
       <c r="H49">
         <v>250</v>
@@ -3694,28 +3629,28 @@
         <v>4000</v>
       </c>
       <c r="J49">
-        <v>4.799</v>
+        <v>4.753</v>
       </c>
       <c r="K49" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L49">
-        <v>2184.07</v>
+        <v>2245.88</v>
       </c>
       <c r="M49">
-        <v>190366.57</v>
+        <v>191775.88</v>
       </c>
       <c r="N49" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O49" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="P49">
         <v>23</v>
       </c>
       <c r="Q49">
-        <v>22.72602739726027</v>
+        <v>22.72328767123288</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3723,22 +3658,22 @@
         <v>17</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C50">
         <v>2.75</v>
       </c>
       <c r="D50" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E50" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F50">
         <v>250</v>
       </c>
       <c r="G50">
-        <v>71.53125</v>
+        <v>72.04688</v>
       </c>
       <c r="H50">
         <v>250</v>
@@ -3747,28 +3682,28 @@
         <v>10000</v>
       </c>
       <c r="J50">
-        <v>4.796</v>
+        <v>4.751</v>
       </c>
       <c r="K50" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L50">
-        <v>2002.06</v>
+        <v>2058.72</v>
       </c>
       <c r="M50">
-        <v>180830.19</v>
+        <v>182175.91</v>
       </c>
       <c r="N50" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="O50" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="P50">
         <v>23.5</v>
       </c>
       <c r="Q50">
-        <v>23.22191780821918</v>
+        <v>23.21917808219178</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3776,22 +3711,22 @@
         <v>17</v>
       </c>
       <c r="B51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C51">
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E51" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F51">
         <v>250</v>
       </c>
       <c r="G51">
-        <v>74.71875</v>
+        <v>75.21875</v>
       </c>
       <c r="H51">
         <v>250</v>
@@ -3800,28 +3735,28 @@
         <v>10000</v>
       </c>
       <c r="J51">
-        <v>4.796</v>
+        <v>4.754</v>
       </c>
       <c r="K51" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L51">
-        <v>2184.07</v>
+        <v>2245.88</v>
       </c>
       <c r="M51">
-        <v>188980.95</v>
+        <v>190292.76</v>
       </c>
       <c r="N51" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O51" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="P51">
         <v>24</v>
       </c>
       <c r="Q51">
-        <v>23.72602739726027</v>
+        <v>23.72328767123288</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3829,22 +3764,22 @@
         <v>17</v>
       </c>
       <c r="B52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C52">
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E52" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F52">
         <v>250</v>
       </c>
       <c r="G52">
-        <v>74.48438</v>
+        <v>75</v>
       </c>
       <c r="H52">
         <v>250</v>
@@ -3853,28 +3788,28 @@
         <v>10000</v>
       </c>
       <c r="J52">
-        <v>4.792</v>
+        <v>4.749</v>
       </c>
       <c r="K52" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L52">
-        <v>2184.07</v>
+        <v>2245.88</v>
       </c>
       <c r="M52">
-        <v>188395.01</v>
+        <v>189745.88</v>
       </c>
       <c r="N52" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O52" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P52">
         <v>24.5</v>
       </c>
       <c r="Q52">
-        <v>24.22465753424657</v>
+        <v>24.22191780821918</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3882,22 +3817,22 @@
         <v>17</v>
       </c>
       <c r="B53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C53">
         <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E53" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F53">
         <v>250</v>
       </c>
       <c r="G53">
-        <v>74.3125</v>
+        <v>74.84375</v>
       </c>
       <c r="H53">
         <v>250</v>
@@ -3906,28 +3841,28 @@
         <v>10000</v>
       </c>
       <c r="J53">
-        <v>4.783</v>
+        <v>4.739</v>
       </c>
       <c r="K53" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L53">
-        <v>2184.07</v>
+        <v>2245.88</v>
       </c>
       <c r="M53">
-        <v>187965.32</v>
+        <v>189355.26</v>
       </c>
       <c r="N53" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O53" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="P53">
         <v>25</v>
       </c>
       <c r="Q53">
-        <v>24.72876712328767</v>
+        <v>24.72602739726027</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3935,22 +3870,22 @@
         <v>17</v>
       </c>
       <c r="B54" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C54">
         <v>2.25</v>
       </c>
       <c r="D54" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E54" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F54">
         <v>250</v>
       </c>
       <c r="G54">
-        <v>63.28516</v>
+        <v>63.75391</v>
       </c>
       <c r="H54">
         <v>250</v>
@@ -3959,28 +3894,28 @@
         <v>10000</v>
       </c>
       <c r="J54">
-        <v>4.768</v>
+        <v>4.726</v>
       </c>
       <c r="K54" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L54">
-        <v>1638.05</v>
+        <v>1684.41</v>
       </c>
       <c r="M54">
-        <v>159850.94</v>
+        <v>161069.18</v>
       </c>
       <c r="N54" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="O54" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="P54">
         <v>25.5</v>
       </c>
       <c r="Q54">
-        <v>25.22465753424657</v>
+        <v>25.22191780821918</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3988,22 +3923,22 @@
         <v>17</v>
       </c>
       <c r="B55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C55">
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E55" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F55">
         <v>250</v>
       </c>
       <c r="G55">
-        <v>59.40625</v>
+        <v>59.875</v>
       </c>
       <c r="H55">
         <v>250</v>
@@ -4012,28 +3947,28 @@
         <v>10000</v>
       </c>
       <c r="J55">
-        <v>4.751</v>
+        <v>4.708</v>
       </c>
       <c r="K55" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L55">
-        <v>1456.04</v>
+        <v>1497.25</v>
       </c>
       <c r="M55">
-        <v>149971.67</v>
+        <v>151184.75</v>
       </c>
       <c r="N55" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="O55" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="P55">
         <v>26</v>
       </c>
       <c r="Q55">
-        <v>25.72876712328767</v>
+        <v>25.72602739726027</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -4041,22 +3976,22 @@
         <v>17</v>
       </c>
       <c r="B56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C56">
         <v>1.375</v>
       </c>
       <c r="D56" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E56" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F56">
         <v>250</v>
       </c>
       <c r="G56">
-        <v>49.90625</v>
+        <v>50.35938</v>
       </c>
       <c r="H56">
         <v>250</v>
@@ -4065,28 +4000,28 @@
         <v>10000</v>
       </c>
       <c r="J56">
-        <v>4.729</v>
+        <v>4.684</v>
       </c>
       <c r="K56" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L56">
-        <v>1001.03</v>
+        <v>1029.36</v>
       </c>
       <c r="M56">
-        <v>125766.66</v>
+        <v>126927.8</v>
       </c>
       <c r="N56" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O56" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="P56">
         <v>26.5</v>
       </c>
       <c r="Q56">
-        <v>26.22465753424657</v>
+        <v>26.22191780821918</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -4094,22 +4029,22 @@
         <v>17</v>
       </c>
       <c r="B57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C57">
         <v>1.875</v>
       </c>
       <c r="D57" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E57" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F57">
         <v>250</v>
       </c>
       <c r="G57">
-        <v>57</v>
+        <v>57.48438</v>
       </c>
       <c r="H57">
         <v>250</v>
@@ -4118,28 +4053,28 @@
         <v>10000</v>
       </c>
       <c r="J57">
-        <v>4.726</v>
+        <v>4.68</v>
       </c>
       <c r="K57" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L57">
-        <v>1365.04</v>
+        <v>1403.67</v>
       </c>
       <c r="M57">
-        <v>143865.04</v>
+        <v>145114.61</v>
       </c>
       <c r="N57" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O57" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="P57">
         <v>27</v>
       </c>
       <c r="Q57">
-        <v>26.72876712328767</v>
+        <v>26.72602739726027</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -4147,22 +4082,22 @@
         <v>17</v>
       </c>
       <c r="B58" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C58">
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F58">
         <v>250</v>
       </c>
       <c r="G58">
-        <v>58.59375</v>
+        <v>59.09375</v>
       </c>
       <c r="H58">
         <v>250</v>
@@ -4171,28 +4106,28 @@
         <v>10000</v>
       </c>
       <c r="J58">
-        <v>4.717</v>
+        <v>4.672</v>
       </c>
       <c r="K58" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L58">
-        <v>1456.04</v>
+        <v>1497.25</v>
       </c>
       <c r="M58">
-        <v>147940.42</v>
+        <v>149231.63</v>
       </c>
       <c r="N58" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O58" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="P58">
         <v>27.5</v>
       </c>
       <c r="Q58">
-        <v>27.22465753424657</v>
+        <v>27.22191780821918</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -4200,22 +4135,22 @@
         <v>17</v>
       </c>
       <c r="B59" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C59">
         <v>2.25</v>
       </c>
       <c r="D59" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E59" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F59">
         <v>250</v>
       </c>
       <c r="G59">
-        <v>62.17578</v>
+        <v>62.67188</v>
       </c>
       <c r="H59">
         <v>250</v>
@@ -4224,28 +4159,28 @@
         <v>10000</v>
       </c>
       <c r="J59">
-        <v>4.707</v>
+        <v>4.664</v>
       </c>
       <c r="K59" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L59">
-        <v>1638.05</v>
+        <v>1684.41</v>
       </c>
       <c r="M59">
-        <v>157077.5</v>
+        <v>158364.1</v>
       </c>
       <c r="N59" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="O59" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="P59">
         <v>28</v>
       </c>
       <c r="Q59">
-        <v>27.72876712328767</v>
+        <v>27.72602739726027</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -4253,22 +4188,22 @@
         <v>17</v>
       </c>
       <c r="B60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C60">
         <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E60" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F60">
         <v>250</v>
       </c>
       <c r="G60">
-        <v>73.511</v>
+        <v>74.05468999999999</v>
       </c>
       <c r="H60">
         <v>250</v>
@@ -4277,28 +4212,28 @@
         <v>4000</v>
       </c>
       <c r="J60">
-        <v>4.706</v>
+        <v>4.663</v>
       </c>
       <c r="K60" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L60">
-        <v>2184.07</v>
+        <v>2245.88</v>
       </c>
       <c r="M60">
-        <v>185961.57</v>
+        <v>187382.6</v>
       </c>
       <c r="N60" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O60" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="P60">
         <v>28.5</v>
       </c>
       <c r="Q60">
-        <v>28.22739726027397</v>
+        <v>28.22465753424657</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -4306,22 +4241,22 @@
         <v>17</v>
       </c>
       <c r="B61" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C61">
         <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E61" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F61">
         <v>250</v>
       </c>
       <c r="G61">
-        <v>89.1875</v>
+        <v>89.81641</v>
       </c>
       <c r="H61">
         <v>250</v>
@@ -4330,28 +4265,28 @@
         <v>10000</v>
       </c>
       <c r="J61">
-        <v>4.692</v>
+        <v>4.649</v>
       </c>
       <c r="K61" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L61">
-        <v>434.78</v>
+        <v>516.3</v>
       </c>
       <c r="M61">
-        <v>223403.53</v>
+        <v>225057.32</v>
       </c>
       <c r="N61" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="O61" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="P61">
         <v>29</v>
       </c>
       <c r="Q61">
-        <v>28.47945205479452</v>
+        <v>28.47671232876712</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -4359,52 +4294,52 @@
         <v>17</v>
       </c>
       <c r="B62" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C62">
         <v>3.625</v>
       </c>
       <c r="D62" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E62" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F62">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="G62">
-        <v>83.12109</v>
+        <v>83.78906000000001</v>
       </c>
       <c r="H62">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="I62">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="J62">
-        <v>4.697</v>
+        <v>4.649</v>
       </c>
       <c r="K62" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L62">
-        <v>433.42</v>
+        <v>467.9</v>
       </c>
       <c r="M62">
-        <v>229016.43</v>
+        <v>209940.56</v>
       </c>
       <c r="N62" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="O62" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="P62">
         <v>29.5</v>
       </c>
       <c r="Q62">
-        <v>28.97534246575342</v>
+        <v>28.97260273972603</v>
       </c>
     </row>
   </sheetData>
